--- a/input_data/input_data_5.xlsx
+++ b/input_data/input_data_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B393FA34-81FB-494F-9DDB-4FBC134E6B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E566F868-63B3-4B29-A973-8D951CC2269D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -618,173 +618,185 @@
   <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>44671.249999652777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>44671.291666261575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>44671.333332870374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>44671.374999479165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>44671.416666087964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>44671.458332696762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -797,15 +809,15 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -813,7 +825,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -822,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -831,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -840,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -849,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -858,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -867,109 +879,127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="str">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="str">
+        <v>44671.249999652777</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+        <v>44671.291666261575</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="str">
+        <v>44671.333332870374</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+        <v>44671.374999479165</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
+        <v>44671.416666087964</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44671.458332696762</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -988,17 +1018,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1021,7 +1051,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1044,14 +1074,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1068,17 +1098,17 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -1086,7 +1116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1095,7 +1125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1104,7 +1134,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1113,7 +1143,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1122,7 +1152,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1131,7 +1161,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1140,109 +1170,127 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="str">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="str">
+        <v>44671.249999652777</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+        <v>44671.291666261575</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="str">
+        <v>44671.333332870374</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+        <v>44671.374999479165</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
+        <v>44671.416666087964</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44671.458332696762</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1259,16 +1307,16 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -1279,7 +1327,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1293,7 +1341,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1307,7 +1355,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1321,7 +1369,7 @@
         <v>97.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1335,7 +1383,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -1349,7 +1397,7 @@
         <v>95.9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -1363,109 +1411,157 @@
         <v>94.9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="str">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="str">
+        <v>44671.249999652777</v>
+      </c>
+      <c r="B8">
+        <f>market_prices!B8+0.1</f>
+        <v>-0.9</v>
+      </c>
+      <c r="C8">
+        <f>market_prices!B8-0.1</f>
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+        <v>44671.291666261575</v>
+      </c>
+      <c r="B9">
+        <f>market_prices!B9+0.1</f>
+        <v>-0.9</v>
+      </c>
+      <c r="C9">
+        <f>market_prices!B9-0.1</f>
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="str">
+        <v>44671.333332870374</v>
+      </c>
+      <c r="B10">
+        <f>market_prices!B10+0.1</f>
+        <v>-0.9</v>
+      </c>
+      <c r="C10">
+        <f>market_prices!B10-0.1</f>
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+        <v>44671.374999479165</v>
+      </c>
+      <c r="B11">
+        <f>market_prices!B11+0.1</f>
+        <v>-0.9</v>
+      </c>
+      <c r="C11">
+        <f>market_prices!B11-0.1</f>
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
+        <v>44671.416666087964</v>
+      </c>
+      <c r="B12">
+        <f>market_prices!B12+0.1</f>
+        <v>-0.9</v>
+      </c>
+      <c r="C12">
+        <f>market_prices!B12-0.1</f>
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44671.458332696762</v>
+      </c>
+      <c r="B13">
+        <f>market_prices!B13+0.1</f>
+        <v>-0.9</v>
+      </c>
+      <c r="C13">
+        <f>market_prices!B13-0.1</f>
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1485,12 +1581,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -1498,7 +1594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1506,7 +1602,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1527,9 +1623,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -1537,7 +1633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1559,162 +1655,162 @@
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="str">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
+        <v>44671.249999652777</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="str">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+        <v>44671.291666261575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="str">
+        <v>44671.333332870374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+        <v>44671.374999479165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
+        <v>44671.416666087964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44671.458332696762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1733,155 +1829,155 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="str">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="str">
+        <v>44671.249999652777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+        <v>44671.291666261575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="str">
+        <v>44671.333332870374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+        <v>44671.374999479165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
+        <v>44671.416666087964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44671.458332696762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1901,14 +1997,14 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1916,7 +2012,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1935,155 +2031,155 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="str">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="str">
+        <v>44671.249999652777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+        <v>44671.291666261575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="str">
+        <v>44671.333332870374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+        <v>44671.374999479165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
+        <v>44671.416666087964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44671.458332696762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2099,23 +2195,23 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2249,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2191,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2229,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2280,155 +2376,155 @@
       <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="str">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="str">
+        <v>44671.249999652777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+        <v>44671.291666261575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="str">
+        <v>44671.333332870374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+        <v>44671.374999479165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
+        <v>44671.416666087964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44671.458332696762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2444,25 +2540,25 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -2512,7 +2608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2535,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -2553,7 +2649,7 @@
         <v>2</v>
       </c>
       <c r="N2" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O2" s="7">
         <v>0</v>
@@ -2562,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2625,9 +2721,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -2684,20 +2780,20 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -2723,7 +2819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
@@ -2749,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -2775,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -2801,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -2841,155 +2937,155 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="str">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="str">
+        <v>44671.249999652777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+        <v>44671.291666261575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="str">
+        <v>44671.333332870374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+        <v>44671.374999479165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
+        <v>44671.416666087964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44671.458332696762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3008,9 +3104,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -3028,161 +3124,161 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="str">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="str">
+        <v>44671.249999652777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+        <v>44671.291666261575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="str">
+        <v>44671.333332870374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+        <v>44671.374999479165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
+        <v>44671.416666087964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44671.458332696762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3203,19 +3299,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -3223,7 +3319,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -3231,7 +3327,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -3239,7 +3335,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -3247,7 +3343,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -3255,7 +3351,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -3263,55 +3359,55 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="str">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
+        <v>44671.249999652777</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="str">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
+        <v>44671.291666261575</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
+        <v>44671.333332870374</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="str">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
+        <v>44671.374999479165</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
+        <v>44671.416666087964</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="str">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
+        <v>44671.458332696762</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
@@ -3319,7 +3415,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
@@ -3327,7 +3423,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -3335,7 +3431,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
@@ -3343,7 +3439,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
@@ -3351,7 +3447,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
@@ -3359,7 +3455,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
@@ -3367,7 +3463,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
@@ -3375,7 +3471,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
@@ -3383,7 +3479,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
@@ -3391,7 +3487,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
@@ -3399,7 +3495,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>

--- a/input_data/input_data_5.xlsx
+++ b/input_data/input_data_5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer_dev\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E566F868-63B3-4B29-A973-8D951CC2269D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA500C1-9C43-4826-A99F-25D68DC536BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>node</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>ramp_up</t>
-  </si>
-  <si>
-    <t>spot</t>
   </si>
   <si>
     <t>source</t>
@@ -628,7 +625,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -819,10 +816,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1014,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,25 +1027,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1056,19 +1053,19 @@
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1110,10 +1107,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1318,13 +1315,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1588,15 +1585,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -1604,7 +1601,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1627,15 +1624,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1662,7 +1659,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1836,7 +1833,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -2006,10 +2003,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2038,7 +2035,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -2192,10 +2189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2222,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -2240,13 +2237,13 @@
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2289,10 +2286,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -2301,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -2322,44 +2319,6 @@
         <v>0</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2383,7 +2342,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -2537,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2566,13 +2525,13 @@
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>15</v>
@@ -2587,30 +2546,30 @@
         <v>16</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="O1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
@@ -2646,65 +2605,15 @@
         <v>0</v>
       </c>
       <c r="M2" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O2" s="7">
         <v>0</v>
       </c>
       <c r="P2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>3</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2774,10 +2683,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2798,19 +2707,19 @@
         <v>10</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2821,13 +2730,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -2847,10 +2756,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
@@ -2868,58 +2777,6 @@
         <v>1</v>
       </c>
       <c r="H3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2944,7 +2801,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -3108,10 +2965,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3136,7 +2993,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3308,7 +3165,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">

--- a/input_data/input_data_5.xlsx
+++ b/input_data/input_data_5.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer_dev\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA500C1-9C43-4826-A99F-25D68DC536BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702D13D0-F1F0-4185-9428-A031763492D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="744" yWindow="708" windowWidth="11508" windowHeight="9864" tabRatio="796" activeTab="3" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
     <sheet name="nodes" sheetId="1" r:id="rId2"/>
     <sheet name="processes" sheetId="2" r:id="rId3"/>
-    <sheet name="efficiencies" sheetId="10" r:id="rId4"/>
-    <sheet name="process_topology" sheetId="6" r:id="rId5"/>
-    <sheet name="node_history" sheetId="19" r:id="rId6"/>
-    <sheet name="reserve_type" sheetId="13" r:id="rId7"/>
-    <sheet name="cf" sheetId="7" r:id="rId8"/>
-    <sheet name="inflow" sheetId="3" r:id="rId9"/>
-    <sheet name="price" sheetId="4" r:id="rId10"/>
-    <sheet name="markets" sheetId="5" r:id="rId11"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId12"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId13"/>
-    <sheet name="risk" sheetId="17" r:id="rId14"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId15"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId16"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId17"/>
-    <sheet name="constraints" sheetId="14" r:id="rId18"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId19"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId20"/>
+    <sheet name="groups" sheetId="21" r:id="rId4"/>
+    <sheet name="efficiencies" sheetId="10" r:id="rId5"/>
+    <sheet name="process_topology" sheetId="6" r:id="rId6"/>
+    <sheet name="node_history" sheetId="19" r:id="rId7"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId8"/>
+    <sheet name="cf" sheetId="7" r:id="rId9"/>
+    <sheet name="inflow" sheetId="3" r:id="rId10"/>
+    <sheet name="price" sheetId="4" r:id="rId11"/>
+    <sheet name="markets" sheetId="5" r:id="rId12"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId13"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId14"/>
+    <sheet name="risk" sheetId="17" r:id="rId15"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId16"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId17"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId18"/>
+    <sheet name="constraints" sheetId="14" r:id="rId19"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId20"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>node</t>
   </si>
@@ -232,6 +233,12 @@
   </si>
   <si>
     <t>fuel, ALL</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -802,6 +809,225 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>44671.458332696762</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1007,12 +1233,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,7 +1316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1299,7 +1525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -1570,7 +1796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1612,7 +1838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1644,7 +1870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1818,7 +2044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -1986,7 +2212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -2017,173 +2243,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2328,6 +2387,173 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>44671.458332696762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -2623,6 +2849,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46731189-F543-409F-A5A2-B21D5FAA15C5}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB1106B-D567-41FC-8E91-2B4CC5EC9B59}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -2681,7 +2933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -2786,7 +3038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -2953,7 +3205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -2976,7 +3228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
   <dimension ref="A1:J25"/>
   <sheetViews>
@@ -3146,223 +3398,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>44671.458332696762</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>